--- a/data/checked/china/heilongjiang/heilongjiangCaseStatistics_20200323.xlsx
+++ b/data/checked/china/heilongjiang/heilongjiangCaseStatistics_20200323.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\checked\china\heilongjiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA7796-FD4F-4309-B138-97D4B216BC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C46BC8-B761-4B81-8249-24792E6A9FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9415" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9431" uniqueCount="3305">
   <si>
     <t>统计级别</t>
   </si>
@@ -10325,6 +10325,10 @@
   </si>
   <si>
     <t>http://hlj.people.com.cn/n2/2020/0324/c220024-33898594.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10801,49 +10805,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.64453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.64453125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="65.1796875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="18.6328125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="65.17578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="18.64453125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="40" max="40" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="16" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="16" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>3251</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>3300</v>
       </c>
       <c r="M17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17" s="17" t="s">
         <v>3290</v>
@@ -12125,13 +12129,79 @@
         <v>3293</v>
       </c>
     </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43913</v>
+      </c>
+      <c r="D18" s="18">
+        <v>43914</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>3298</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>3295</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>3304</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>3290</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>3302</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>3301</v>
+      </c>
+      <c r="W18" s="18">
+        <v>43914.341666666667</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>43914.402777777781</v>
+      </c>
+      <c r="AA18" s="17" t="s">
+        <v>3287</v>
+      </c>
+      <c r="AB18" s="17" t="s">
+        <v>3288</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>43914.4375</v>
+      </c>
+      <c r="AE18" s="17" t="s">
+        <v>3287</v>
+      </c>
+      <c r="AF18" s="17" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG18" s="17" t="s">
+        <v>3293</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z18">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(Z18,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(Z18,0)&lt;(WEEKDAY(TODAY())+7))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
@@ -12139,13 +12209,13 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AK2:AK1048576 AE2:AE1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E15" xr:uid="{476C888A-8557-4F29-B324-F662944C83E2}">
@@ -12154,7 +12224,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17 H19:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12163,9 +12233,11 @@
     <hyperlink ref="V3:V17" r:id="rId2" display="http://wsjkw.hlj.gov.cn/index.php/Home/Zwgk/show/newsid/8162/navid/42/id/3" xr:uid="{2334D611-4EB2-47EB-AE78-08827BF496EF}"/>
     <hyperlink ref="Y2" r:id="rId3" xr:uid="{61A78362-EA6F-4AA4-95F0-CDEE36B74DF6}"/>
     <hyperlink ref="Y3:Y17" r:id="rId4" display="http://hlj.people.com.cn/n2/2020/0324/c220024-33898594.html" xr:uid="{32F8392B-2D8D-43F2-B856-980C20D08C45}"/>
+    <hyperlink ref="V18" r:id="rId5" xr:uid="{3CF98C8A-0963-4C98-BB00-EDF04A7DD90E}"/>
+    <hyperlink ref="Y18" r:id="rId6" xr:uid="{FA13FE3E-8856-47E1-910E-22F3F370834D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -12196,10 +12268,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
